--- a/biology/Botanique/François_Bonamy/François_Bonamy.xlsx
+++ b/biology/Botanique/François_Bonamy/François_Bonamy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Bonamy</t>
+          <t>François_Bonamy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Bonamy[1] (10 mai 1710, Nantes - 5 janvier 1786, Nantes), est un médecin et botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Bonamy (10 mai 1710, Nantes - 5 janvier 1786, Nantes), est un médecin et botaniste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Bonamy</t>
+          <t>François_Bonamy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Issu de la famille famille Bonamy[2], François Bonamy est le fils de François Bonamy (1676-1743), maître apothicaire à Nantes, et de  Perrine Rose Gravay de Hautefeuille. Marié à Perrine Laurence Julie Guyard du Pierré, fille d'un armateur nantais, il est notamment le grand-père d'Eugène Charles Bonamy d'Auguste Bonamy et de Paul Proust de La Gironière, ainsi que le beau-père de Pierre-Louis Athénas et de Louis François René Girard de La Cantrie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Issu de la famille famille Bonamy, François Bonamy est le fils de François Bonamy (1676-1743), maître apothicaire à Nantes, et de  Perrine Rose Gravay de Hautefeuille. Marié à Perrine Laurence Julie Guyard du Pierré, fille d'un armateur nantais, il est notamment le grand-père d'Eugène Charles Bonamy d'Auguste Bonamy et de Paul Proust de La Gironière, ainsi que le beau-père de Pierre-Louis Athénas et de Louis François René Girard de La Cantrie.
 Médecin et botaniste nantais, il enseigne la botanique pendant près de 50 ans, gratuitement et en public. À ses frais, il entretient un jardin botanique exotique.
 Membre fondateur de la Société d'agriculture de Bretagne (la première en France), il est l'auteur de Flore des environs de Nantes paru en 1782.
 Il est docteur-régent et doyen de la faculté de médecine de Nantes, procureur général, puis recteur de l'Université royale de Nantes. Directeur de l'établissement du Jardin des plantes de Nantes en 1737, il est le médecin personnel de Barrin de la Galissonnière.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Bonamy</t>
+          <t>François_Bonamy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Florae Nannetensis prodromus... curante magistro Francisco Bonamy, Flore des environs de Nantes.   Nannetis : ex typ. Brun, 1782.
 Addenda ad Florae Nannetensis prodromum, curante magistro Francisco Bonamy. Nannetis : ex typ. Brun, 1785.</t>
